--- a/src/main/resources/template/excel/export/expireAccountsPayable.xlsx
+++ b/src/main/resources/template/excel/export/expireAccountsPayable.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21330" windowHeight="4845"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21825" windowHeight="5880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -58,9 +58,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
-    <t>${obj.branchName}</t>
-  </si>
-  <si>
     <t>机构编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -73,10 +70,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.branchCode}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>到期账款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -198,15 +191,24 @@
   </si>
   <si>
     <t>${obj.discountAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchCodeFull}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.branchNameFull}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm;@"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -303,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,13 +313,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -325,74 +330,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -405,14 +342,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -693,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,121 +653,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="I3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -838,17 +775,17 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>

--- a/src/main/resources/template/excel/export/expireAccountsPayable.xlsx
+++ b/src/main/resources/template/excel/export/expireAccountsPayable.xlsx
@@ -70,10 +70,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>到期账款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>供应商编号</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>${obj.branchNameFull}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商到期账款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -313,15 +313,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -631,7 +631,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:K4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,23 +653,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -679,40 +679,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>2</v>
@@ -720,54 +720,54 @@
     </row>
     <row r="3" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="8" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -775,17 +775,17 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
